--- a/TestData/Production/Web_POS/Billing/mode_of_payment_test_data.xlsx
+++ b/TestData/Production/Web_POS/Billing/mode_of_payment_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\TESTDATA\PRODUCTION\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>tax_invoice</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
   </si>
   <si>
     <t>TC_01</t>
@@ -512,8 +515,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="C1">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63281" defaultRowHeight="12.75"/>
@@ -530,7 +533,7 @@
     <col min="13" max="13" width="28.71" style="1" customWidth="1"/>
     <col min="14" max="15" width="10.71" style="1" customWidth="1"/>
     <col min="16" max="17" width="19.14" style="1" customWidth="1"/>
-    <col min="18" max="18" width="36.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.57" style="1" customWidth="1"/>
     <col min="19" max="20" width="22.5" style="2" customWidth="1"/>
     <col min="21" max="21" width="23.93" style="1" customWidth="1"/>
     <col min="22" max="24" width="29.46" style="2" customWidth="1"/>
@@ -591,146 +594,158 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3">
         <v>1234</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3">
         <v>123456</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="5">
         <v>45384</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="R2" s="3">
+        <v>7423698512</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3">
         <v>1234</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3">
         <v>123456</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="5">
         <v>45384</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="R3" s="3">
+        <v>7423698512</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3">
         <v>1234</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3">
         <v>123456</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" s="5">
         <v>45384</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="R4" s="3">
+        <v>7423698512</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -740,16 +755,17 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="B6" s="3"/>
@@ -758,16 +774,17 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="B7" s="3"/>
@@ -776,165 +793,175 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3">
         <v>1234</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3">
         <v>123456</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" s="5">
         <v>45384</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="R8" s="3">
+        <v>7423698512</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3">
         <v>1234</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3">
         <v>123456</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L9" s="5">
         <v>45384</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="R9" s="3">
+        <v>7423698512</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3">
         <v>1234</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3">
         <v>123456</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" s="5">
         <v>45384</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="R10" s="3">
+        <v>9762358496</v>
       </c>
     </row>
     <row r="11" ht="14.25">
@@ -944,16 +971,17 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" s="2"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" s="3"/>
@@ -962,16 +990,17 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" s="2"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
+      <c r="R12" s="3"/>
     </row>
     <row r="13" ht="14.25">
       <c r="B13" s="3"/>
@@ -980,554 +1009,582 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I13" s="2"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
+      <c r="R13" s="3"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3">
         <v>1234</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3">
         <v>123456</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L14" s="5">
         <v>45384</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="R14" s="3">
+        <v>7423698512</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3">
         <v>1234</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="3">
         <v>123456</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15" s="5">
         <v>45384</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="R15" s="3">
+        <v>7423698512</v>
+      </c>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="7"/>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3">
         <v>1234</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3">
         <v>123456</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L16" s="5">
         <v>45384</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="R16" s="3">
+        <v>7423698512</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="3">
         <v>1234</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="3">
         <v>123456</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L17" s="5">
         <v>45384</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="R17" s="3">
+        <v>7423698512</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3">
         <v>1234</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="3">
         <v>123456</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L18" s="5">
         <v>45384</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="R18" s="3">
+        <v>7423698512</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3">
         <v>1234</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="3">
         <v>123456</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" s="5">
         <v>45384</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="R19" s="3">
+        <v>7423698512</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3">
         <v>1234</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="3">
         <v>123456</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L20" s="5">
         <v>45384</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="R20" s="3">
+        <v>7423698512</v>
+      </c>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="7"/>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3">
         <v>1234</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="3">
         <v>123456</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L21" s="5">
         <v>45384</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="R21" s="3">
+        <v>7423698512</v>
+      </c>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="7"/>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3">
         <v>1234</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" s="3">
         <v>123456</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L22" s="5">
         <v>45384</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="R22" s="3">
+        <v>7423698512</v>
+      </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="7"/>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="3">
         <v>1234</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="3">
         <v>123456</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L23" s="5">
         <v>45384</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="R23" s="3">
+        <v>7423698512</v>
+      </c>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="7"/>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="3">
         <v>1234</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" s="3">
         <v>123456</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L24" s="5">
         <v>45384</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="R24" s="3">
+        <v>7423698512</v>
+      </c>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="7"/>
@@ -1543,6 +1600,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
+      <c r="R25" s="3"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" ht="14.25">
@@ -1556,6 +1614,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
+      <c r="R26" s="3"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" ht="14.25">
@@ -1569,7 +1628,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="R27" s="6"/>
+      <c r="R27" s="3"/>
       <c r="S27" s="6"/>
       <c r="T27" s="7"/>
     </row>
@@ -1584,6 +1643,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
+      <c r="R28" s="3"/>
     </row>
     <row r="29" ht="14.25">
       <c r="B29" s="3"/>
@@ -1596,7 +1656,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="R29" s="6"/>
+      <c r="R29" s="3"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="7"/>
@@ -1612,6 +1672,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
+      <c r="R30" s="3"/>
     </row>
     <row r="31" ht="14.25">
       <c r="B31" s="3"/>
@@ -1624,6 +1685,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
+      <c r="R31" s="3"/>
     </row>
     <row r="32" ht="14.25">
       <c r="B32" s="3"/>
@@ -1636,6 +1698,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
+      <c r="R32" s="3"/>
     </row>
     <row r="33" ht="14.25">
       <c r="B33" s="3"/>
@@ -1648,6 +1711,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
+      <c r="R33" s="3"/>
     </row>
     <row r="34" ht="14.25">
       <c r="B34" s="3"/>
@@ -1660,6 +1724,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
+      <c r="R34" s="3"/>
     </row>
     <row r="35" ht="14.25">
       <c r="B35" s="3"/>
@@ -1672,6 +1737,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
+      <c r="R35" s="3"/>
     </row>
     <row r="36" ht="14.25">
       <c r="B36" s="3"/>
@@ -1684,6 +1750,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
+      <c r="R36" s="3"/>
     </row>
     <row r="37" ht="14.25">
       <c r="B37" s="3"/>
@@ -1696,6 +1763,7 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
+      <c r="R37" s="3"/>
     </row>
     <row r="38" ht="14.25">
       <c r="B38" s="3"/>
@@ -1708,6 +1776,7 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
+      <c r="R38" s="3"/>
     </row>
     <row r="39" ht="14.25">
       <c r="B39" s="3"/>
@@ -1720,6 +1789,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
+      <c r="R39" s="3"/>
     </row>
     <row r="40" ht="14.25">
       <c r="B40" s="3"/>
@@ -1732,6 +1802,7 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
+      <c r="R40" s="3"/>
     </row>
     <row r="41" ht="14.25">
       <c r="B41" s="3"/>
@@ -1744,6 +1815,7 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
+      <c r="R41" s="3"/>
     </row>
     <row r="42" ht="14.25">
       <c r="B42" s="3"/>
@@ -1756,6 +1828,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
+      <c r="R42" s="3"/>
     </row>
     <row r="43" ht="14.25">
       <c r="B43" s="3"/>
@@ -1768,6 +1841,7 @@
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
+      <c r="R43" s="3"/>
     </row>
     <row r="44" ht="14.25">
       <c r="B44" s="3"/>
@@ -1780,6 +1854,7 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
+      <c r="R44" s="3"/>
     </row>
     <row r="45" ht="14.25">
       <c r="B45" s="3"/>
@@ -1792,6 +1867,7 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
+      <c r="R45" s="3"/>
     </row>
     <row r="46" ht="14.25">
       <c r="B46" s="3"/>
@@ -1804,6 +1880,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
+      <c r="R46" s="3"/>
     </row>
     <row r="47" ht="14.25">
       <c r="B47" s="3"/>
@@ -1816,6 +1893,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
+      <c r="R47" s="3"/>
     </row>
     <row r="48" ht="14.25">
       <c r="B48" s="3"/>
@@ -1828,6 +1906,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
+      <c r="R48" s="3"/>
     </row>
     <row r="49" ht="14.25">
       <c r="B49" s="3"/>
@@ -1840,6 +1919,7 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
+      <c r="R49" s="3"/>
     </row>
     <row r="50" ht="14.25">
       <c r="B50" s="3"/>
@@ -1852,6 +1932,7 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
+      <c r="R50" s="3"/>
     </row>
     <row r="51" ht="14.25">
       <c r="B51" s="3"/>
@@ -1864,6 +1945,7 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
+      <c r="R51" s="3"/>
     </row>
     <row r="52" ht="14.25">
       <c r="B52" s="3"/>
@@ -1876,6 +1958,7 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
+      <c r="R52" s="3"/>
     </row>
     <row r="53" ht="14.25">
       <c r="B53" s="3"/>
@@ -1888,6 +1971,7 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
+      <c r="R53" s="3"/>
     </row>
     <row r="54" ht="14.25">
       <c r="B54" s="3"/>
@@ -1900,6 +1984,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
+      <c r="R54" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7479166" right="0.7479166" top="0.9840278" bottom="0.9840278" header="0.5118055" footer="0.5118055"/>

--- a/TestData/Production/Web_POS/Billing/mode_of_payment_test_data.xlsx
+++ b/TestData/Production/Web_POS/Billing/mode_of_payment_test_data.xlsx
@@ -119,13 +119,13 @@
     <t>TC_16</t>
   </si>
   <si>
-    <t>wkgVcw</t>
+    <t>XrxLyp</t>
   </si>
   <si>
     <t>TC_17</t>
   </si>
   <si>
-    <t>1mzWPD</t>
+    <t>YwGYCP</t>
   </si>
   <si>
     <t>TC_18</t>
@@ -515,8 +515,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="C1">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="K1">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63281" defaultRowHeight="12.75"/>

--- a/TestData/Production/Web_POS/Billing/mode_of_payment_test_data.xlsx
+++ b/TestData/Production/Web_POS/Billing/mode_of_payment_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\PROD\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -119,13 +119,13 @@
     <t>TC_16</t>
   </si>
   <si>
-    <t>XrxLyp</t>
+    <t>HZumo6</t>
   </si>
   <si>
     <t>TC_17</t>
   </si>
   <si>
-    <t>YwGYCP</t>
+    <t>YLoVsM</t>
   </si>
   <si>
     <t>TC_18</t>
@@ -137,6 +137,10 @@
     <t>B_MOP_user2_p3</t>
   </si>
   <si>
+    <t xml:space="preserve">Kv5pBk_x000d_
+</t>
+  </si>
+  <si>
     <t>TC_22</t>
   </si>
   <si>
@@ -146,7 +150,7 @@
     <t>TC_24</t>
   </si>
   <si>
-    <t>8906118410781 : 10 , 8906118412556 : 10</t>
+    <t>ProductAmountMoreThenAcountSale : 16</t>
   </si>
   <si>
     <t>TC_25</t>
@@ -515,8 +519,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="K1">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="F1">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63281" defaultRowHeight="12.75"/>
@@ -911,7 +915,7 @@
         <v>7423698512</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
+    <row r="10" ht="25.5">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -958,7 +962,7 @@
         <v>29</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R10" s="3">
         <v>9762358496</v>
@@ -1023,7 +1027,7 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -1073,7 +1077,7 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>19</v>
@@ -1126,7 +1130,7 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
@@ -1153,7 +1157,7 @@
         <v>24</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>26</v>
@@ -1176,7 +1180,7 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>19</v>
@@ -1226,7 +1230,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
@@ -1276,7 +1280,7 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
@@ -1326,7 +1330,7 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
@@ -1379,7 +1383,7 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
@@ -1432,7 +1436,7 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
@@ -1485,7 +1489,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
@@ -1538,7 +1542,7 @@
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>19</v>
